--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="137" documentId="616A062CAB793704D1B977DB2FAC91207E37969A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{EA8F04A9-1816-46E8-843B-2E0FB055340C}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="616A062CAB793704D1B977DB2FAC91207E37969A" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{3202663A-553C-4264-A400-B4177328D7E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clang-usr" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="34">
   <si>
     <t>empty main function</t>
   </si>
   <si>
-    <t>Run two instances of "clang -c empty.c"concurrently  for 30,000 times per iteration on each thread of the same core at 3.5 GHz. The results are system-level averages across 5 iterations</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
     <t>Drhystone</t>
   </si>
   <si>
-    <t>Modify makefile to only use "-s". The results are for 2,000 rounds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running "pgbench -j 1 -c 2 -t 4000000 -S pgbench" </t>
-  </si>
-  <si>
     <t>Database size = 4GB</t>
   </si>
   <si>
@@ -108,6 +99,30 @@
   </si>
   <si>
     <t>shared ptp (binary + lib) + super page padded binary</t>
+  </si>
+  <si>
+    <t>Running "pgbench -j 1 -c 2 -t 4000000 -S pgbench". Results reported are for all postgres processes</t>
+  </si>
+  <si>
+    <t>Results reported are for one iteration of one process</t>
+  </si>
+  <si>
+    <t>Run two instances of "clang -c empty.c"concurrently  for 30,000  iterations per round on each thread of the same core at 3.5 GHz. The results are system-level averages across 5 iterations</t>
+  </si>
+  <si>
+    <t>Modify makefile to only use "-c". The experiments are 2,000 iterations per round</t>
+  </si>
+  <si>
+    <t>Compile libc by "make CC=clang"</t>
+  </si>
+  <si>
+    <t>Results reported are for one iteration per process</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Minimum</t>
   </si>
 </sst>
 </file>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -517,1064 +532,1604 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
-        <v>11559715.921700001</v>
-      </c>
-      <c r="C5" s="7">
-        <v>11559834.7402</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11559902.365900001</v>
-      </c>
-      <c r="E5" s="7">
-        <v>11559871.0458</v>
-      </c>
-      <c r="F5" s="7">
-        <f>C5/B5</f>
-        <v>1.0000102786695455</v>
-      </c>
-      <c r="G5" s="7">
-        <f>D5/B5</f>
-        <v>1.0000161287873564</v>
-      </c>
-      <c r="H5" s="7">
-        <f>E5/B5</f>
-        <v>1.0000134193695633</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>13967022.3455</v>
+        <v>11559715.921700001</v>
       </c>
       <c r="C6" s="7">
-        <v>11834203.3664</v>
+        <v>11559834.7402</v>
       </c>
       <c r="D6" s="7">
-        <v>11759132.456</v>
+        <v>11559902.365900001</v>
       </c>
       <c r="E6" s="7">
-        <v>11727354.4614</v>
+        <v>11559871.0458</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:F12" si="0">C6/B6</f>
-        <v>0.84729608599880502</v>
+        <f>C6/B6</f>
+        <v>1.0000102786695455</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" ref="G6:G12" si="1">D6/B6</f>
-        <v>0.84192121735873404</v>
+        <f>D6/B6</f>
+        <v>1.0000161287873564</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H12" si="2">E6/B6</f>
-        <v>0.83964600122361854</v>
+        <f>E6/B6</f>
+        <v>1.0000134193695633</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7">
+        <v>13967022.3455</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11834203.3664</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11759132.456</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11727354.4614</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F13" si="0">C7/B7</f>
+        <v>0.84729608599880502</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G13" si="1">D7/B7</f>
+        <v>0.84192121735873404</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H13" si="2">E7/B7</f>
+        <v>0.83964600122361854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
         <v>262961.29830000002</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>127554.955317</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>23689.978633300001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>24918.839666700002</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>0.48507121063677827</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>9.0089221442287037E-2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>9.476238453261393E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
         <v>141139.085517</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>85114.857300000003</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>44436.3105</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>44963.910649999998</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0.60305660184930165</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <f t="shared" si="1"/>
         <v>0.31484057259707632</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>0.31857873023120986</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
         <v>680691.59886699996</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>555216.56863300002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>624431.14210000006</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>602037.95791700005</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>0.81566537556383667</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>0.91734809587683397</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>0.88445040150206411</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
         <v>6725603.8755700001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>6057487.8038299996</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>5794241.966</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>5772263.6314200005</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0.9006608054680626</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>0.86151995764230671</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>0.85825209724097773</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
         <v>532898.53798300005</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>463770.48745000002</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>446591.092183</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>443605.864933</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>0.87027915145977508</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <f t="shared" si="1"/>
         <v>0.8380415038730068</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>0.83243963590523384</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
         <v>466743.87201699999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>357863.07579999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>386893.28259999998</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>367682.28021699999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>0.76672260152772975</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>0.828919897604801</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>0.78776027337667553</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="7">
-        <v>11559715.9132</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11559873.636600001</v>
-      </c>
-      <c r="D16" s="7">
-        <v>11559709.645099999</v>
-      </c>
-      <c r="E16" s="7">
-        <v>11559945.5704</v>
-      </c>
-      <c r="F16" s="7">
-        <f>C16/B16</f>
-        <v>1.0000136442280403</v>
-      </c>
-      <c r="G16" s="7">
-        <f>D16/B16</f>
-        <v>0.99999945776349108</v>
-      </c>
-      <c r="H16" s="7">
-        <f>E16/B16</f>
-        <v>1.0000198670280243</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7">
-        <v>13948437.4245</v>
+        <v>11559715.9132</v>
       </c>
       <c r="C17" s="7">
-        <v>11830447.4563</v>
+        <v>11559873.636600001</v>
       </c>
       <c r="D17" s="7">
-        <v>11750254.086999999</v>
+        <v>11559709.645099999</v>
       </c>
       <c r="E17" s="7">
-        <v>11722460.6295</v>
+        <v>11559945.5704</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ref="F17:F23" si="3">C17/B17</f>
-        <v>0.84815575367031315</v>
+        <f>C17/B17</f>
+        <v>1.0000136442280403</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:G23" si="4">D17/B17</f>
-        <v>0.84240648105579485</v>
+        <f>D17/B17</f>
+        <v>0.99999945776349108</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" ref="H17:H23" si="5">E17/B17</f>
-        <v>0.84041389531632116</v>
+        <f>E17/B17</f>
+        <v>1.0000198670280243</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7">
+        <v>13948437.4245</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11830447.4563</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11750254.086999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>11722460.6295</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" ref="F18:F24" si="3">C18/B18</f>
+        <v>0.84815575367031315</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" ref="G18:G24" si="4">D18/B18</f>
+        <v>0.84240648105579485</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H24" si="5">E18/B18</f>
+        <v>0.84041389531632116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7">
         <v>261148.04605</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>127810.5104</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>23593.69745</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>25296.7670167</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <f t="shared" si="3"/>
         <v>0.48941783150668916</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <f t="shared" si="4"/>
         <v>9.034606158026813E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <f t="shared" si="5"/>
         <v>9.6867533184056914E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
         <v>138857.160183</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="7">
         <v>85158.750150000007</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>44678.400666699999</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>44802.899683299998</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <f t="shared" si="3"/>
         <v>0.61328310357038263</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <f t="shared" si="4"/>
         <v>0.32175798934544164</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <f t="shared" si="5"/>
         <v>0.32265458708974176</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7">
         <v>673099.29084999999</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>555769.78496700001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>625592.58233300003</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>603991.10973300005</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <f t="shared" si="3"/>
         <v>0.82568766974210517</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="4"/>
         <v>0.92942094998048841</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <f t="shared" si="5"/>
         <v>0.89732840004967307</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
         <v>6672093.8782000002</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>6056050.9677200001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>5782164.2028700002</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>5756460.3824500004</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <f t="shared" si="3"/>
         <v>0.90766872862913073</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <f t="shared" si="4"/>
         <v>0.86661913162857274</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="7">
         <f t="shared" si="5"/>
         <v>0.86276669476404011</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
         <v>526153.35965</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>464245.01771699998</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>445100.36791700003</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>441506.49961699999</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <f t="shared" si="3"/>
         <v>0.88233783782321229</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <f t="shared" si="4"/>
         <v>0.84595177385749876</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <f t="shared" si="5"/>
         <v>0.83912131609440344</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7">
         <v>458843.70083300001</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="7">
         <v>361922.44931699999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>383777.27269999997</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>363318.96198299999</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <f t="shared" si="3"/>
         <v>0.78877066125121476</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <f t="shared" si="4"/>
         <v>0.83640087464048873</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <f t="shared" si="5"/>
         <v>0.79181420889819065</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B29" s="3" t="s">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="7">
-        <v>212130581.09900001</v>
-      </c>
-      <c r="C30" s="7">
-        <v>212132067.78999999</v>
-      </c>
-      <c r="D30" s="7">
-        <v>212130501.17300001</v>
-      </c>
-      <c r="E30" s="7">
-        <v>212130483.63699999</v>
-      </c>
-      <c r="F30" s="7">
-        <f>C30/B30</f>
-        <v>1.0000070083765966</v>
-      </c>
-      <c r="G30" s="7">
-        <f>D30/B30</f>
-        <v>0.99999962322264158</v>
-      </c>
-      <c r="H30" s="7">
-        <f>E30/B30</f>
-        <v>0.99999954055657836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="7">
-        <v>148438636.317</v>
-      </c>
-      <c r="C31" s="7">
-        <v>148422840.77500001</v>
-      </c>
-      <c r="D31" s="7">
-        <v>148445280.81999999</v>
-      </c>
-      <c r="E31" s="7">
-        <v>148436864.12</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" ref="F31:F37" si="6">C31/B31</f>
-        <v>0.99989358874217715</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" ref="G31:G37" si="7">D31/B31</f>
-        <v>1.0000447626249125</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" ref="H31:H37" si="8">E31/B31</f>
-        <v>0.99998806108002625</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="7">
+        <v>212130581.09900001</v>
+      </c>
+      <c r="C32" s="7">
+        <v>212132067.78999999</v>
+      </c>
+      <c r="D32" s="7">
+        <v>212130501.17300001</v>
+      </c>
+      <c r="E32" s="7">
+        <v>212130483.63699999</v>
+      </c>
+      <c r="F32" s="7">
+        <f>C32/B32</f>
+        <v>1.0000070083765966</v>
+      </c>
+      <c r="G32" s="7">
+        <f>D32/B32</f>
+        <v>0.99999962322264158</v>
+      </c>
+      <c r="H32" s="7">
+        <f>E32/B32</f>
+        <v>0.99999954055657836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="7">
+        <v>148438636.317</v>
+      </c>
+      <c r="C33" s="7">
+        <v>148422840.77500001</v>
+      </c>
+      <c r="D33" s="7">
+        <v>148445280.81999999</v>
+      </c>
+      <c r="E33" s="7">
+        <v>148436864.12</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" ref="F33:F39" si="6">C33/B33</f>
+        <v>0.99989358874217715</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" ref="G33:G39" si="7">D33/B33</f>
+        <v>1.0000447626249125</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" ref="H33:H39" si="8">E33/B33</f>
+        <v>0.99998806108002625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7">
         <v>150574.50949999999</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C34" s="7">
         <v>145709.37</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D34" s="7">
         <v>150541.91450000001</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E34" s="7">
         <v>146416.576</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F34" s="7">
         <f t="shared" si="6"/>
         <v>0.96768948797405852</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G34" s="7">
         <f t="shared" si="7"/>
         <v>0.99978352909726742</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H34" s="7">
         <f t="shared" si="8"/>
         <v>0.97238620591355818</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="7">
         <v>630709.22450000001</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C35" s="7">
         <v>628399.82325000002</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D35" s="7">
         <v>630805.91225000005</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E35" s="7">
         <v>632446.56425000005</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F35" s="7">
         <f t="shared" si="6"/>
         <v>0.99633840578147437</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G35" s="7">
         <f t="shared" si="7"/>
         <v>1.0001533000410399</v>
       </c>
-      <c r="H33" s="7">
-        <f>E33/B33</f>
+      <c r="H35" s="7">
+        <f>E35/B35</f>
         <v>1.0027545811643668</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7">
         <v>12257879.805500001</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C36" s="7">
         <v>12286732.384</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D36" s="7">
         <v>12259695.654200001</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E36" s="7">
         <v>12269348.5813</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F36" s="7">
         <f t="shared" si="6"/>
         <v>1.0023537984511035</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G36" s="7">
         <f t="shared" si="7"/>
         <v>1.0001481372577323</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H36" s="7">
         <f t="shared" si="8"/>
         <v>1.0009356247558288</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7">
         <v>96406956.967299998</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C37" s="7">
         <v>96854675.700499997</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D37" s="7">
         <v>96433126.467700005</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E37" s="7">
         <v>96825774.474000007</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F37" s="7">
         <f t="shared" si="6"/>
         <v>1.0046440500487104</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G37" s="7">
         <f t="shared" si="7"/>
         <v>1.0002714482566739</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H37" s="7">
         <f t="shared" si="8"/>
         <v>1.0043442664292586</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="7">
         <v>7243545.6087499997</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C38" s="7">
         <v>7284047.6974999998</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D38" s="7">
         <v>7248671.7185000004</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E38" s="7">
         <v>7284505.2139999997</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F38" s="7">
         <f t="shared" si="6"/>
         <v>1.005591472869457</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G38" s="7">
         <f t="shared" si="7"/>
         <v>1.0007076796401764</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H38" s="7">
         <f t="shared" si="8"/>
         <v>1.0056546348242112</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="7">
         <v>3048967.7857499998</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C39" s="7">
         <v>3047148.5334999999</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D39" s="7">
         <v>3040065.37775</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E39" s="7">
         <v>3013192.2025000001</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F39" s="7">
         <f t="shared" si="6"/>
         <v>0.99940332191815784</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G39" s="7">
         <f t="shared" si="7"/>
         <v>0.99708018955083522</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H39" s="7">
         <f t="shared" si="8"/>
         <v>0.98826632953709626</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="B40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="7">
-        <v>212130502.215</v>
-      </c>
-      <c r="C41" s="7">
-        <v>212130617.62400001</v>
-      </c>
-      <c r="D41" s="7">
-        <v>212130565.183</v>
-      </c>
-      <c r="E41" s="7">
-        <v>212130458.65099999</v>
-      </c>
-      <c r="F41" s="7">
-        <f>C41/B41</f>
-        <v>1.0000005440471729</v>
-      </c>
-      <c r="G41" s="7">
-        <f>D41/B41</f>
-        <v>1.0000002968361426</v>
-      </c>
-      <c r="H41" s="7">
-        <f>E41/B41</f>
-        <v>0.9999997946358512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="7">
-        <v>148390402.667</v>
-      </c>
-      <c r="C42" s="7">
-        <v>148418568.78</v>
-      </c>
-      <c r="D42" s="7">
-        <v>148413132.132</v>
-      </c>
-      <c r="E42" s="7">
-        <v>148417136.36500001</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" ref="F42:F48" si="9">C42/B42</f>
-        <v>1.0001898108805811</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" ref="G42:G48" si="10">D42/B42</f>
-        <v>1.0001531734168214</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" ref="H42:H48" si="11">E42/B42</f>
-        <v>1.0001801578641174</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B43" s="7">
+        <v>212130502.215</v>
+      </c>
+      <c r="C43" s="7">
+        <v>212130617.62400001</v>
+      </c>
+      <c r="D43" s="7">
+        <v>212130565.183</v>
+      </c>
+      <c r="E43" s="7">
+        <v>212130458.65099999</v>
+      </c>
+      <c r="F43" s="7">
+        <f>C43/B43</f>
+        <v>1.0000005440471729</v>
+      </c>
+      <c r="G43" s="7">
+        <f>D43/B43</f>
+        <v>1.0000002968361426</v>
+      </c>
+      <c r="H43" s="7">
+        <f>E43/B43</f>
+        <v>0.9999997946358512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="7">
+        <v>148390402.667</v>
+      </c>
+      <c r="C44" s="7">
+        <v>148418568.78</v>
+      </c>
+      <c r="D44" s="7">
+        <v>148413132.132</v>
+      </c>
+      <c r="E44" s="7">
+        <v>148417136.36500001</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" ref="F44:F50" si="9">C44/B44</f>
+        <v>1.0001898108805811</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" ref="G44:G50" si="10">D44/B44</f>
+        <v>1.0001531734168214</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44:H50" si="11">E44/B44</f>
+        <v>1.0001801578641174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="7">
         <v>149634.4645</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C45" s="7">
         <v>145535.24275</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D45" s="7">
         <v>150502.34650000001</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E45" s="7">
         <v>145573.86874999999</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F45" s="7">
         <f t="shared" si="9"/>
         <v>0.97260509626777858</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G45" s="7">
         <f t="shared" si="10"/>
         <v>1.0058000140736294</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H45" s="7">
         <f t="shared" si="11"/>
         <v>0.97286323198623803</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="7">
         <v>631088.84149999998</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C46" s="7">
         <v>630100.12100000004</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D46" s="7">
         <v>630465.34649999999</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E46" s="7">
         <v>631363.48525000003</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F46" s="7">
         <f t="shared" si="9"/>
         <v>0.99843331012215353</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G46" s="7">
         <f t="shared" si="10"/>
         <v>0.99901203291993246</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H46" s="7">
         <f t="shared" si="11"/>
         <v>1.0004351903122661</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="7">
         <v>12256314.6697</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C47" s="7">
         <v>12266891.313999999</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D47" s="7">
         <v>12250270.903000001</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E47" s="7">
         <v>12277134.1655</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F47" s="7">
         <f t="shared" si="9"/>
         <v>1.0008629546960104</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G47" s="7">
         <f t="shared" si="10"/>
         <v>0.99950688548206579</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H47" s="7">
         <f t="shared" si="11"/>
         <v>1.0016986750390369</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="7">
         <v>96425265.328500003</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C48" s="7">
         <v>96806044.745499998</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D48" s="7">
         <v>96543160.494200006</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E48" s="7">
         <v>96733869.682999998</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F48" s="7">
         <f t="shared" si="9"/>
         <v>1.0039489589756665</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G48" s="7">
         <f t="shared" si="10"/>
         <v>1.0012226584526198</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H48" s="7">
         <f t="shared" si="11"/>
         <v>1.0032004511830861</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="7">
         <v>7251645.0729999999</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C49" s="7">
         <v>7286408.7714999998</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D49" s="7">
         <v>7258641.9012500001</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E49" s="7">
         <v>7268955.8052500002</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F49" s="7">
         <f t="shared" si="9"/>
         <v>1.0047939051277393</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G49" s="7">
         <f t="shared" si="10"/>
         <v>1.0009648608253114</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H49" s="7">
         <f t="shared" si="11"/>
         <v>1.0023871455477673</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="7">
         <v>3040043.4114999999</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C50" s="7">
         <v>3016026.3914999999</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D50" s="7">
         <v>3031723.7097499999</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E50" s="7">
         <v>3015677.395</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F50" s="7">
         <f t="shared" si="9"/>
         <v>0.99209977728964416</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G50" s="7">
         <f t="shared" si="10"/>
         <v>0.9972632950837057</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H50" s="7">
         <f t="shared" si="11"/>
         <v>0.99198497744873404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7">
+        <v>609199097932</v>
+      </c>
+      <c r="C57" s="7">
+        <v>610952937945</v>
+      </c>
+      <c r="D57" s="7">
+        <v>610951862494</v>
+      </c>
+      <c r="E57" s="7">
+        <v>610952939104</v>
+      </c>
+      <c r="F57" s="7">
+        <f>C57/B57</f>
+        <v>1.0028789274622265</v>
+      </c>
+      <c r="G57" s="7">
+        <f>D57/B57</f>
+        <v>1.0028771621099735</v>
+      </c>
+      <c r="H57" s="7">
+        <f>E57/B57</f>
+        <v>1.0028789293647242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="7">
+        <v>596772953561</v>
+      </c>
+      <c r="C58" s="7">
+        <v>592304969373</v>
+      </c>
+      <c r="D58" s="7">
+        <v>575730600828</v>
+      </c>
+      <c r="E58" s="7">
+        <v>579518511246</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" ref="F58:F64" si="12">C58/B58</f>
+        <v>0.99251309202044247</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" ref="G58:G64" si="13">D58/B58</f>
+        <v>0.96473976810202555</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:H64" si="14">E58/B58</f>
+        <v>0.97108709063967946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2723970735</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2303337576.5</v>
+      </c>
+      <c r="D59" s="7">
+        <v>319034145</v>
+      </c>
+      <c r="E59" s="7">
+        <v>306116724.5</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="12"/>
+        <v>0.84558088194732384</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.11712098845291008</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="14"/>
+        <v>0.11237885949608045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2782610191</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2591897529.5</v>
+      </c>
+      <c r="D60" s="7">
+        <v>1575256364</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1629945993</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" si="12"/>
+        <v>0.93146267410475392</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="13"/>
+        <v>0.56610745159166276</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="14"/>
+        <v>0.58576152645162216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="7">
+        <v>29794556092</v>
+      </c>
+      <c r="C61" s="7">
+        <v>31167890645.5</v>
+      </c>
+      <c r="D61" s="7">
+        <v>30835043272.5</v>
+      </c>
+      <c r="E61" s="7">
+        <v>33657848938.5</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0460934725544961</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0349220568108877</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="14"/>
+        <v>1.1296643868286165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="7">
+        <v>380753362285</v>
+      </c>
+      <c r="C62" s="7">
+        <v>380471727697</v>
+      </c>
+      <c r="D62" s="7">
+        <v>376889902278</v>
+      </c>
+      <c r="E62" s="7">
+        <v>383231758200</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" si="12"/>
+        <v>0.99926032278136734</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="13"/>
+        <v>0.9898531165061436</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0065091898338769</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="7">
+        <v>28188311922</v>
+      </c>
+      <c r="C63" s="7">
+        <v>28202150570</v>
+      </c>
+      <c r="D63" s="7">
+        <v>28219439527.5</v>
+      </c>
+      <c r="E63" s="7">
+        <v>29070999507.5</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0004909356771094</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0011042734870443</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0313139569315994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8066069813</v>
+      </c>
+      <c r="C64" s="7">
+        <v>7821503669</v>
+      </c>
+      <c r="D64" s="7">
+        <v>8046816839</v>
+      </c>
+      <c r="E64" s="7">
+        <v>8709278553</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="12"/>
+        <v>0.96967963956797953</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="13"/>
+        <v>0.99761309107826335</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0797425208201579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7">
+        <v>610951960242</v>
+      </c>
+      <c r="C68" s="7">
+        <v>610952175740</v>
+      </c>
+      <c r="D68" s="7">
+        <v>610954104734</v>
+      </c>
+      <c r="E68" s="7">
+        <v>610952911310</v>
+      </c>
+      <c r="F68" s="7">
+        <f>C68/B68</f>
+        <v>1.0000003527249506</v>
+      </c>
+      <c r="G68" s="7">
+        <f>D68/B68</f>
+        <v>1.0000035100828535</v>
+      </c>
+      <c r="H68" s="7">
+        <f>E68/B68</f>
+        <v>1.0000015566984999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="7">
+        <v>590541933784</v>
+      </c>
+      <c r="C69" s="7">
+        <v>586407185280</v>
+      </c>
+      <c r="D69" s="7">
+        <v>571693175466</v>
+      </c>
+      <c r="E69" s="7">
+        <v>575613154402</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" ref="F69:F75" si="15">C69/B69</f>
+        <v>0.99299838289635778</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" ref="G69:G75" si="16">D69/B69</f>
+        <v>0.96808226945506937</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" ref="H69:H75" si="17">E69/B69</f>
+        <v>0.97472020439540807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="7">
+        <v>2702062184.5</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2225083195.5</v>
+      </c>
+      <c r="D70" s="7">
+        <v>322184181</v>
+      </c>
+      <c r="E70" s="7">
+        <v>307038220</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="15"/>
+        <v>0.8234759393265918</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="16"/>
+        <v>0.11923640501249907</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="17"/>
+        <v>0.11363107102467204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2658956166.5</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2540095988</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1513916982</v>
+      </c>
+      <c r="E71" s="7">
+        <v>1582752138.5</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="15"/>
+        <v>0.95529818054260884</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="16"/>
+        <v>0.56936515203737936</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="17"/>
+        <v>0.59525318936843785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="7">
+        <v>35466325075</v>
+      </c>
+      <c r="C72" s="7">
+        <v>30355343575.5</v>
+      </c>
+      <c r="D72" s="7">
+        <v>33439377469.5</v>
+      </c>
+      <c r="E72" s="7">
+        <v>35898206827</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="15"/>
+        <v>0.85589199081968881</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="16"/>
+        <v>0.94284867120532923</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="17"/>
+        <v>1.012177234350802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="7">
+        <v>390692202597</v>
+      </c>
+      <c r="C73" s="7">
+        <v>379108228800</v>
+      </c>
+      <c r="D73" s="7">
+        <v>381814460482</v>
+      </c>
+      <c r="E73" s="7">
+        <v>387810538696</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="15"/>
+        <v>0.97035012800358111</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="16"/>
+        <v>0.97727688943882662</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="17"/>
+        <v>0.99262420933449635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="7">
+        <v>29546359597.5</v>
+      </c>
+      <c r="C74" s="7">
+        <v>28016194542</v>
+      </c>
+      <c r="D74" s="7">
+        <v>28922701806.5</v>
+      </c>
+      <c r="E74" s="7">
+        <v>29705409464</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="15"/>
+        <v>0.94821138453789511</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="16"/>
+        <v>0.97889222904290485</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="17"/>
+        <v>1.0053830613539767</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="7">
+        <v>8906638312</v>
+      </c>
+      <c r="C75" s="7">
+        <v>7700989913</v>
+      </c>
+      <c r="D75" s="7">
+        <v>8532990062.5</v>
+      </c>
+      <c r="E75" s="7">
+        <v>9108308679.5</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="15"/>
+        <v>0.86463485360401149</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="16"/>
+        <v>0.95804834142680073</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="17"/>
+        <v>1.022642703165378</v>
       </c>
     </row>
   </sheetData>
@@ -1587,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F0971D-2958-4906-BF62-9A7AE620A91E}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1599,57 +2154,57 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="10" customFormat="1" ht="114" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
         <v>955392504665</v>
@@ -1692,7 +2247,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7">
         <v>1194365965650</v>
@@ -1735,7 +2290,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
         <v>17505725323</v>
@@ -1778,7 +2333,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7">
         <v>12512966642</v>
@@ -1821,7 +2376,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>180496089833</v>
@@ -1864,7 +2419,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7">
         <v>2011495374900</v>
@@ -1907,7 +2462,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7">
         <v>172933429990</v>
@@ -1950,7 +2505,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7">
         <v>64013351266</v>
@@ -1993,47 +2548,47 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="H15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="7">
         <v>955386978114</v>
@@ -2076,7 +2631,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>1193209958810</v>
@@ -2119,7 +2674,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="7">
         <v>17187601578</v>
@@ -2162,7 +2717,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7">
         <v>12396117563</v>
@@ -2205,7 +2760,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="7">
         <v>177459404742</v>
@@ -2248,7 +2803,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7">
         <v>2019267118430</v>
@@ -2291,7 +2846,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="7">
         <v>174336159726</v>
@@ -2334,7 +2889,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="7">
         <v>63968513857</v>

--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{E4EB4BD1-863E-4171-ACA6-CC8391D5FC03}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{840C5E3C-E41B-4CBC-A8FC-7176B38ED063}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3214,15 +3214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87951E7B-4827-4323-B134-23BCB9A420CD}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.59765625" customWidth="1"/>
     <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
@@ -3288,7 +3288,9 @@
       <c r="E5" s="7">
         <v>1148747932240</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>1135099261780</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -3296,7 +3298,10 @@
         <f>E5/B5</f>
         <v>0.95955912715687197</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <f>F5/B5</f>
+        <v>0.94815827415345333</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -3311,7 +3316,9 @@
       <c r="E6" s="7">
         <v>955437943748</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>955693334574</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3319,7 +3326,10 @@
         <f t="shared" ref="J6:J18" si="0">E6/B6</f>
         <v>1.0000203143484119</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <f t="shared" ref="K6:K18" si="1">F6/B6</f>
+        <v>1.0002876221476984</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -3334,7 +3344,9 @@
       <c r="E7" s="7">
         <v>773952254181</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>756784074646</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3342,7 +3354,10 @@
         <f t="shared" si="0"/>
         <v>0.94066748790417276</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.91980115121759531</v>
+      </c>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -3357,7 +3372,9 @@
       <c r="E8" s="7">
         <v>190437469512</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>190247206607</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3365,7 +3382,10 @@
         <f t="shared" si="0"/>
         <v>0.81407893950957033</v>
       </c>
-      <c r="K8" s="7"/>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81326560679554449</v>
+      </c>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -3380,7 +3400,9 @@
       <c r="E9" s="7">
         <v>1147071290930</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>1136547964080</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3388,7 +3410,10 @@
         <f t="shared" si="0"/>
         <v>0.95761969349537868</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94883441126198032</v>
+      </c>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -3403,7 +3428,9 @@
       <c r="E10" s="7">
         <v>849683052937</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>837483381215</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3411,7 +3438,10 @@
         <f t="shared" si="0"/>
         <v>0.99364259618430462</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97937596647980096</v>
+      </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -3426,7 +3456,9 @@
       <c r="E11" s="7">
         <v>243185561544</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>246867755298</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3434,7 +3466,10 @@
         <f t="shared" si="0"/>
         <v>0.95767383281225615</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97217444947371234</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -3449,7 +3484,9 @@
       <c r="E12" s="7">
         <v>168804730641</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>170663903929</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -3457,7 +3494,10 @@
         <f t="shared" si="0"/>
         <v>0.95676800140573826</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96730560603489824</v>
+      </c>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -3472,7 +3512,9 @@
       <c r="E13" s="7">
         <v>1150060896440</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>1134094660600</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -3480,7 +3522,10 @@
         <f t="shared" si="0"/>
         <v>0.95825314892062463</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94494977010177306</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -3495,7 +3540,9 @@
       <c r="E14" s="7">
         <v>31945301789</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>31952414642</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -3503,7 +3550,10 @@
         <f t="shared" si="0"/>
         <v>0.99715821950322892</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99738024400873893</v>
+      </c>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -3518,7 +3568,9 @@
       <c r="E15" s="7">
         <v>5005883723</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>5900990668</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -3526,7 +3578,10 @@
         <f t="shared" si="0"/>
         <v>0.4061658563736017</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.47879276881894361</v>
+      </c>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -3541,7 +3596,9 @@
       <c r="E16" s="7">
         <v>167573548142</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>165082029583</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -3549,7 +3606,10 @@
         <f t="shared" si="0"/>
         <v>0.95535279866203671</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94114841345535694</v>
+      </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -3564,7 +3624,9 @@
       <c r="E17" s="7">
         <v>1148208307720</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>1134660970150</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -3572,7 +3634,10 @@
         <f t="shared" si="0"/>
         <v>0.95744859723474107</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94615197164385134</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -3587,7 +3652,9 @@
       <c r="E18" s="7">
         <v>6213167334</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>3038961077</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3595,7 +3662,10 @@
         <f t="shared" si="0"/>
         <v>0.28644150969829218</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14010319568357982</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -3648,10 +3718,17 @@
       <c r="E23" s="7">
         <v>1148161245170</v>
       </c>
+      <c r="F23" s="7">
+        <v>1136213231690</v>
+      </c>
       <c r="J23" s="7">
         <f>E23/B23</f>
         <v>0.9548814017781978</v>
       </c>
+      <c r="K23" s="7">
+        <f>F23/B23</f>
+        <v>0.94494470002289865</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -3663,9 +3740,16 @@
       <c r="E24" s="7">
         <v>955342113850</v>
       </c>
+      <c r="F24" s="7">
+        <v>955513194445</v>
+      </c>
       <c r="J24" s="7">
-        <f t="shared" ref="J24:J36" si="1">E24/B24</f>
+        <f t="shared" ref="J24:J36" si="2">E24/B24</f>
         <v>1.0000138245015979</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" ref="K24:K36" si="3">F24/B24</f>
+        <v>1.0001929048097133</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -3678,9 +3762,16 @@
       <c r="E25" s="7">
         <v>773600021322</v>
       </c>
+      <c r="F25" s="7">
+        <v>758175113738</v>
+      </c>
       <c r="J25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93414646645845578</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.91552040322435946</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -3693,9 +3784,16 @@
       <c r="E26" s="7">
         <v>190373120177</v>
       </c>
+      <c r="F26" s="7">
+        <v>189651958151</v>
+      </c>
       <c r="J26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80116459260393902</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="3"/>
+        <v>0.79812966057033818</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -3708,9 +3806,16 @@
       <c r="E27" s="7">
         <v>1149087100020</v>
       </c>
+      <c r="F27" s="7">
+        <v>1134200496990</v>
+      </c>
       <c r="J27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95824501586704669</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94583080187365964</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -3723,9 +3828,16 @@
       <c r="E28" s="7">
         <v>848799621159</v>
       </c>
+      <c r="F28" s="7">
+        <v>834705619820</v>
+      </c>
       <c r="J28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99265521099629883</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="3"/>
+        <v>0.97617254120688057</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -3738,9 +3850,16 @@
       <c r="E29" s="7">
         <v>242703161305</v>
       </c>
+      <c r="F29" s="7">
+        <v>244396989476</v>
+      </c>
       <c r="J29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95950052392635121</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="3"/>
+        <v>0.96619688918495339</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -3753,9 +3872,16 @@
       <c r="E30" s="7">
         <v>168804190507</v>
       </c>
+      <c r="F30" s="7">
+        <v>167086136660</v>
+      </c>
       <c r="J30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96129001827991079</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95150620895012983</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -3768,9 +3894,16 @@
       <c r="E31" s="7">
         <v>1148119090570</v>
       </c>
+      <c r="F31" s="7">
+        <v>1135430053020</v>
+      </c>
       <c r="J31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9562451957905076</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94567675276394936</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -3783,12 +3916,19 @@
       <c r="E32" s="7">
         <v>31914255339</v>
       </c>
+      <c r="F32" s="7">
+        <v>31859065955</v>
+      </c>
       <c r="J32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99260990767303292</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K32" s="7">
+        <f t="shared" si="3"/>
+        <v>0.99089338542381011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3798,12 +3938,19 @@
       <c r="E33" s="7">
         <v>5085225305</v>
       </c>
+      <c r="F33" s="7">
+        <v>5896847639</v>
+      </c>
       <c r="J33" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.40895316488246847</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K33" s="7">
+        <f t="shared" si="3"/>
+        <v>0.47422372857848466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3813,12 +3960,19 @@
       <c r="E34" s="7">
         <v>167226414204</v>
       </c>
+      <c r="F34" s="7">
+        <v>166625125990</v>
+      </c>
       <c r="J34" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95072149245422366</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K34" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94730302754884188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>11</v>
       </c>
@@ -3828,12 +3982,19 @@
       <c r="E35" s="7">
         <v>1148195094320</v>
       </c>
+      <c r="F35" s="7">
+        <v>1135992982390</v>
+      </c>
       <c r="J35" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95610299559807466</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K35" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94594228699845706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3843,9 +4004,16 @@
       <c r="E36" s="7">
         <v>6305939132</v>
       </c>
+      <c r="F36" s="7">
+        <v>2927330055</v>
+      </c>
       <c r="J36" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28849628981907133</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="3"/>
+        <v>0.13392515250547746</v>
       </c>
     </row>
   </sheetData>

--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{6CE535CE-54EA-4688-AAD2-7D01831B4D7B}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{25817995-4D92-4F82-8B0A-599F874A84EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clang-usr" sheetId="1" r:id="rId1"/>
     <sheet name="postgres_usr" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="apache-usr" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="59">
   <si>
     <t>empty main function</t>
   </si>
@@ -184,6 +185,21 @@
   </si>
   <si>
     <t>ICACHE_64B.IFTAG_MISS</t>
+  </si>
+  <si>
+    <t>WP Test database size 1.5MB</t>
+  </si>
+  <si>
+    <t>Apachebenchmark (ab) only performs http GET, which only retrieves data and should have no other effects</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>shared_ptp</t>
+  </si>
+  <si>
+    <t>ab -n 1500 -c 2 "http://localhost/"</t>
   </si>
 </sst>
 </file>
@@ -600,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4937,14 +4953,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87951E7B-4827-4323-B134-23BCB9A420CD}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.796875" customWidth="1"/>
     <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
     <col min="5" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6285,11 +6302,512 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5464C-330A-41DB-8D46-3E35795C96A7}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1455430818660</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1455711713820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>161123142408</v>
+      </c>
+      <c r="C8" s="7">
+        <v>161239562241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3467929632</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3504527261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7">
+        <v>16464081572</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16495934063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1454534426350</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1454952282780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7">
+        <v>29456209073</v>
+      </c>
+      <c r="C12" s="7">
+        <v>29523193245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1515685088490</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1515634109420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1182526327200</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1182851735900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1470419197300</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1455169878820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>103919266770</v>
+      </c>
+      <c r="C16" s="7">
+        <v>92969445865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="7">
+        <v>121273712</v>
+      </c>
+      <c r="C17" s="7">
+        <v>112771609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>643956514</v>
+      </c>
+      <c r="C18" s="7">
+        <v>608768913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1454534155420</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1455053299570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2946612596</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2991950768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7">
+        <v>6140342117</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6157822941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3133462314</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3213159244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1456017173310</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1454557698520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8338726051</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6274152903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7">
+        <v>371987727951</v>
+      </c>
+      <c r="C25" s="7">
+        <v>370526514167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7">
+        <v>12049370420</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9475769111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1455813119720</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1455622715410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7">
+        <v>160716904306</v>
+      </c>
+      <c r="C31" s="7">
+        <v>161005402262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3467567378</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3510650923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="7">
+        <v>16469719256</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16507600784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1455137786120</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1455321063000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7">
+        <v>29076616462</v>
+      </c>
+      <c r="C35" s="7">
+        <v>29187316555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1515713632050</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1515634418560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1183596481060</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1183673248120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1454211784310</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1455749883280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="7">
+        <v>92051194528</v>
+      </c>
+      <c r="C39" s="7">
+        <v>92124076145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="7">
+        <v>110893155</v>
+      </c>
+      <c r="C40" s="7">
+        <v>111924941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7">
+        <v>606219745</v>
+      </c>
+      <c r="C41" s="7">
+        <v>603740326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1454545767260</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1455105374080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2933115043</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2981194473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6106092050</v>
+      </c>
+      <c r="C44" s="7">
+        <v>6100921738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3074966868</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3138441783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1454961105490</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1454800064070</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6179245023</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6174988815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="7">
+        <v>370499782327</v>
+      </c>
+      <c r="C48" s="7">
+        <v>370482756600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="7">
+        <v>9314225753</v>
+      </c>
+      <c r="C49" s="7">
+        <v>9353143664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EE433-CEA8-42D5-AB36-3F5DBB49C7DA}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A80" activeCellId="1" sqref="A76 A80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{25817995-4D92-4F82-8B0A-599F874A84EE}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{589D4181-61AB-49AF-9775-D64BF2BE1A04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="clang-usr" sheetId="1" r:id="rId1"/>
-    <sheet name="postgres_usr" sheetId="2" r:id="rId2"/>
-    <sheet name="apache-usr" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="apache-usr" sheetId="4" r:id="rId1"/>
+    <sheet name="postgres_usr_new" sheetId="3" r:id="rId2"/>
+    <sheet name="in-memory-database" sheetId="5" r:id="rId3"/>
+    <sheet name="app code access pattern" sheetId="6" r:id="rId4"/>
+    <sheet name="clang-usr" sheetId="1" r:id="rId5"/>
+    <sheet name="postgres_usr" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="111">
   <si>
     <t>empty main function</t>
   </si>
@@ -201,6 +203,162 @@
   <si>
     <t>ab -n 1500 -c 2 "http://localhost/"</t>
   </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>1.6MB</t>
+  </si>
+  <si>
+    <t>code size is too small</t>
+  </si>
+  <si>
+    <t>Silo</t>
+  </si>
+  <si>
+    <t>cannot be compiled on freebsd</t>
+  </si>
+  <si>
+    <t>Binary size</t>
+  </si>
+  <si>
+    <t># of shared libs linked</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>DB name</t>
+  </si>
+  <si>
+    <t>HyPer db</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>javascript. Has the same properties as nodejs benchmarks</t>
+  </si>
+  <si>
+    <t>apache ignite</t>
+  </si>
+  <si>
+    <t>java. Has the same properties as specjvm (e.g, 11M libjvm.so, small java binary)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>memcached</t>
+  </si>
+  <si>
+    <t>voltdb</t>
+  </si>
+  <si>
+    <t>164KB</t>
+  </si>
+  <si>
+    <t>Use as benchmark?</t>
+  </si>
+  <si>
+    <t>code size is too small, but can be padded</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>no native library is found for freebsd</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>2.2MB on Linux</t>
+  </si>
+  <si>
+    <t>binary name</t>
+  </si>
+  <si>
+    <t>/usr/bin/clang</t>
+  </si>
+  <si>
+    <t># of 4KB pages accessed</t>
+  </si>
+  <si>
+    <t>/usr/local/bin/postgres</t>
+  </si>
+  <si>
+    <t>/lib/libcrypto.so.8</t>
+  </si>
+  <si>
+    <t>/usr/local/lib/libxml2.so.2.9.4</t>
+  </si>
+  <si>
+    <t>/lib/libthr.so.3</t>
+  </si>
+  <si>
+    <t>/lib/libz.so.6</t>
+  </si>
+  <si>
+    <t>/lib/libm.so.5</t>
+  </si>
+  <si>
+    <t>/usr/lib/libssl.so.8</t>
+  </si>
+  <si>
+    <t>/usr/lib/libc++.so.1</t>
+  </si>
+  <si>
+    <t>/usr/local/lib/libicuuc.so.60.1</t>
+  </si>
+  <si>
+    <t>/lib/libcxxrt.so.1</t>
+  </si>
+  <si>
+    <t>/lib/libgcc_s.so.1</t>
+  </si>
+  <si>
+    <t>/usr/local/lib/libicui18n.so.60.1</t>
+  </si>
+  <si>
+    <t>/usr/lib/liblzma.so.5</t>
+  </si>
+  <si>
+    <t>/lib/libc.so.7</t>
+  </si>
+  <si>
+    <t>/libexec/ld-elf.so.1</t>
+  </si>
+  <si>
+    <t>/usr/local/lib/libintl.so.8.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>total # of 4KB pages</t>
+  </si>
+  <si>
+    <t># of contiguous 4KB pages accessed</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +421,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -289,12 +447,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,6 +517,23 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -349,6 +550,2183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>postgres binary </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>access pattern</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'app code access pattern'!$A$24:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'app code access pattern'!$B$24:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84EF-4B7D-B5C3-27D07296D482}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="656348896"/>
+        <c:axId val="656349880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="656348896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656349880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656349880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of contiguous 4KB pages accessed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656348896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>clang binary access</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pattern</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'app code access pattern'!$A$43:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'app code access pattern'!$B$43:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CC8-4998-B37B-D5D5C8285433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="656353816"/>
+        <c:axId val="656351848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="656353816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656351848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656351848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of contiguous 4KB pages accessed</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656353816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1235868</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>278606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AE85D1-D885-4AF5-9281-F333237BDC2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1140618</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>150018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9913D73C-51F4-4E99-857A-C193428D5FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,6 +2991,2661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5464C-330A-41DB-8D46-3E35795C96A7}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1455430818660</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1455711713820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>161123142408</v>
+      </c>
+      <c r="C8" s="7">
+        <v>161239562241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3467929632</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3504527261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7">
+        <v>16464081572</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16495934063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1454534426350</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1454952282780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7">
+        <v>29456209073</v>
+      </c>
+      <c r="C12" s="7">
+        <v>29523193245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1515685088490</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1515634109420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1182526327200</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1182851735900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1470419197300</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1455169878820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>103919266770</v>
+      </c>
+      <c r="C16" s="7">
+        <v>92969445865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="7">
+        <v>121273712</v>
+      </c>
+      <c r="C17" s="7">
+        <v>112771609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7">
+        <v>643956514</v>
+      </c>
+      <c r="C18" s="7">
+        <v>608768913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1454534155420</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1455053299570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2946612596</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2991950768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7">
+        <v>6140342117</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6157822941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3133462314</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3213159244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1456017173310</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1454557698520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8338726051</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6274152903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7">
+        <v>371987727951</v>
+      </c>
+      <c r="C25" s="7">
+        <v>370526514167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="7">
+        <v>12049370420</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9475769111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1455813119720</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1455622715410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="7">
+        <v>160716904306</v>
+      </c>
+      <c r="C31" s="7">
+        <v>161005402262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3467567378</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3510650923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="7">
+        <v>16469719256</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16507600784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1455137786120</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1455321063000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="7">
+        <v>29076616462</v>
+      </c>
+      <c r="C35" s="7">
+        <v>29187316555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1515713632050</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1515634418560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1183596481060</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1183673248120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1454211784310</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1455749883280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="7">
+        <v>92051194528</v>
+      </c>
+      <c r="C39" s="7">
+        <v>92124076145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="7">
+        <v>110893155</v>
+      </c>
+      <c r="C40" s="7">
+        <v>111924941</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7">
+        <v>606219745</v>
+      </c>
+      <c r="C41" s="7">
+        <v>603740326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1454545767260</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1455105374080</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2933115043</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2981194473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6106092050</v>
+      </c>
+      <c r="C44" s="7">
+        <v>6100921738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7">
+        <v>3074966868</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3138441783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1454961105490</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1454800064070</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="7">
+        <v>6179245023</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6174988815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="7">
+        <v>370499782327</v>
+      </c>
+      <c r="C48" s="7">
+        <v>370482756600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="7">
+        <v>9314225753</v>
+      </c>
+      <c r="C49" s="7">
+        <v>9353143664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EE433-CEA8-42D5-AB36-3F5DBB49C7DA}">
+  <dimension ref="A1:L83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>13926170.969799999</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11832878.595100001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11733741.332599999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11729644.3036</v>
+      </c>
+      <c r="F6" s="7">
+        <f>C6/B6</f>
+        <v>0.84968643719515802</v>
+      </c>
+      <c r="G6" s="7">
+        <f>D6/B6</f>
+        <v>0.84256766328989807</v>
+      </c>
+      <c r="H6" s="7">
+        <f>E6/B6</f>
+        <v>0.84227346691611493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>11559870.666999999</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11559865.197899999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11559871.045499999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>11559872.0341</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" ref="F7:F19" si="0">C7/B7</f>
+        <v>0.99999952688917049</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" ref="G7:G19" si="1">D7/B7</f>
+        <v>1.0000000327425809</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H19" si="2">E7/B7</f>
+        <v>1.0000001182625688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>9137239.4423799999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7208144.8775000004</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7090217.4798699999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>7087990.5456699999</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7888755595117114</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.7759693203380903</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.77572559965920873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3450147.4054299998</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2634853.4745</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2582915.6261999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2580126.3355700001</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.76369301507325371</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74863920948272789</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.74783075398728738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7">
+        <v>13923294.2926</v>
+      </c>
+      <c r="C10" s="7">
+        <v>11853238.2629</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11729388.2075</v>
+      </c>
+      <c r="E10" s="7">
+        <v>11731785.1755</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85132426376994697</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84242909479647887</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.84260125003141306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
+        <v>8804560.4897799995</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7927462.3078300003</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7859103.84332</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7861322.7290000003</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90038137815418484</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8926173944108341</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89286940990695973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
+        <v>833595.29824999999</v>
+      </c>
+      <c r="C12" s="7">
+        <v>764739.91178299999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>715954.25274999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>722686.18134999997</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91739950235857748</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8588751091243334</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.86695088476046356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
+        <v>524572.05001699994</v>
+      </c>
+      <c r="C13" s="7">
+        <v>470349.51144999999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>436872.26711700001</v>
+      </c>
+      <c r="E13" s="7">
+        <v>444546.31411699997</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.89663471668907491</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.83281651605883722</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.84744567329234077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>13937173.9926</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11847992.3805</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11730769.681</v>
+      </c>
+      <c r="E14" s="7">
+        <v>11730258.700300001</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.85010005520421439</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8416892611966027</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8416525980466506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7">
+        <v>226520.621117</v>
+      </c>
+      <c r="C15" s="7">
+        <v>186701.04661700001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>182743.72589999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>182417.43206699999</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82421214323161862</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80674211910098537</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.80530165936980935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>139877.28649999999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>86651.643800000005</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44519.368399999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45330.580099999999</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.61948330546146257</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31827446409607041</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32407391674701957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
+        <v>664480.04571700003</v>
+      </c>
+      <c r="C17" s="7">
+        <v>558786.60061700002</v>
+      </c>
+      <c r="D17" s="7">
+        <v>601897.813433</v>
+      </c>
+      <c r="E17" s="7">
+        <v>606174.10574999999</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.84093812029230663</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90581774022051886</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91225328684763496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13926196.0865</v>
+      </c>
+      <c r="C18" s="7">
+        <v>11831501.8684</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11732344.2894</v>
+      </c>
+      <c r="E18" s="7">
+        <v>11734372.6723</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.84958604596049103</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.84246582602504705</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.84261147835447003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7">
+        <v>263937.67583299999</v>
+      </c>
+      <c r="C19" s="7">
+        <v>131657.492417</v>
+      </c>
+      <c r="D19" s="7">
+        <v>24091.241966699999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>25544.518499999998</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49882038250690292</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>9.1276252587535606E-2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6782387809471571E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
+        <v>13931886.5241</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11733923.749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4167.7998166699999</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1802.0540833299999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7">
+        <v>14211.4880667</v>
+      </c>
+      <c r="D22" s="7">
+        <v>12363.90155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7">
+        <v>17553.445333299998</v>
+      </c>
+      <c r="D23" s="7">
+        <v>16491.461016699999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13932860.719000001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11728766.3716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7">
+        <v>72717.839399999997</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70123.218366700006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7">
+        <v>51550.433550000002</v>
+      </c>
+      <c r="D26" s="7">
+        <v>51005.226583299998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="7">
+        <v>59.996400000000001</v>
+      </c>
+      <c r="D27" s="7">
+        <v>59.994966666700002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="7">
+        <v>13927552.449200001</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11728036.101199999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="7">
+        <v>38867.794000000002</v>
+      </c>
+      <c r="D29" s="7">
+        <v>40529.209016699999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="7">
+        <v>25834.053483299998</v>
+      </c>
+      <c r="D30" s="7">
+        <v>28005.945266700001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6754.9944833299996</v>
+      </c>
+      <c r="D31" s="7">
+        <v>673.98426666700004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="7">
+        <v>13918747.7819</v>
+      </c>
+      <c r="D32" s="7">
+        <v>11722610.2643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="7">
+        <v>54925.114766699997</v>
+      </c>
+      <c r="D33" s="7">
+        <v>54697.084866700003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2743634.0181</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2746846.1967000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="7">
+        <v>26040.492249999999</v>
+      </c>
+      <c r="D35" s="7">
+        <v>24868.138033300002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7">
+        <v>13936422.3388</v>
+      </c>
+      <c r="D36" s="7">
+        <v>11717481.908</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9308.1689833300006</v>
+      </c>
+      <c r="D37" s="7">
+        <v>9144.8289499999992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="7">
+        <v>35865.612683300002</v>
+      </c>
+      <c r="D38" s="7">
+        <v>34270.702583300001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="7">
+        <v>59.994599999999998</v>
+      </c>
+      <c r="D39" s="7">
+        <v>59.994416666699998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="7">
+        <v>13921287.099400001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>11721041.625499999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="7">
+        <v>721.71546666699999</v>
+      </c>
+      <c r="D41" s="7">
+        <v>574.88836666700001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" ht="114" x14ac:dyDescent="0.45">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1197162217240</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>1148747932240</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1135099261780</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7">
+        <f>E48/B48</f>
+        <v>0.95955912715687197</v>
+      </c>
+      <c r="K48" s="7">
+        <f>F48/B48</f>
+        <v>0.94815827415345333</v>
+      </c>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="7">
+        <v>955418535043</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>955437943748</v>
+      </c>
+      <c r="F49" s="7">
+        <v>955693334574</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7">
+        <f t="shared" ref="J49:J61" si="3">E49/B49</f>
+        <v>1.0000203143484119</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" ref="K49:K61" si="4">F49/B49</f>
+        <v>1.0002876221476984</v>
+      </c>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="7">
+        <v>822769218808</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>773952254181</v>
+      </c>
+      <c r="F50" s="7">
+        <v>756784074646</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94066748790417276</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.91980115121759531</v>
+      </c>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="7">
+        <v>233929979354</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
+        <v>190437469512</v>
+      </c>
+      <c r="F51" s="7">
+        <v>190247206607</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7">
+        <f t="shared" si="3"/>
+        <v>0.81407893950957033</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="4"/>
+        <v>0.81326560679554449</v>
+      </c>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1199157919940</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>1148056369510</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1135525307280</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95738547060377432</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" si="4"/>
+        <v>0.94693558571236069</v>
+      </c>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="7">
+        <v>855080003365</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>848152796767</v>
+      </c>
+      <c r="F53" s="7">
+        <v>836465312711</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7">
+        <f t="shared" si="3"/>
+        <v>0.99189876202140226</v>
+      </c>
+      <c r="K53" s="7">
+        <f t="shared" si="4"/>
+        <v>0.97823046898448618</v>
+      </c>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="7">
+        <v>252947398415</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <v>240077009277</v>
+      </c>
+      <c r="F54" s="7">
+        <v>245009860529</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7">
+        <f t="shared" si="3"/>
+        <v>0.9491183178058068</v>
+      </c>
+      <c r="K54" s="7">
+        <f t="shared" si="4"/>
+        <v>0.96861980816668758</v>
+      </c>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="7">
+        <v>175601730276</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
+        <v>165522926942</v>
+      </c>
+      <c r="F55" s="7">
+        <v>168150761769</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7">
+        <f t="shared" si="3"/>
+        <v>0.94260419121065175</v>
+      </c>
+      <c r="K55" s="7">
+        <f t="shared" si="4"/>
+        <v>0.95756893456978454</v>
+      </c>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1200056023480</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <v>1150060896440</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1135588877340</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95833933911266833</v>
+      </c>
+      <c r="K56" s="7">
+        <f t="shared" si="4"/>
+        <v>0.94627988620643388</v>
+      </c>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="7">
+        <v>32060808262</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>31945301789</v>
+      </c>
+      <c r="F57" s="7">
+        <v>31891727823</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7">
+        <f t="shared" si="3"/>
+        <v>0.99639726883813773</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="4"/>
+        <v>0.99472625775313339</v>
+      </c>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="7">
+        <v>12395544579</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7">
+        <v>5005883723</v>
+      </c>
+      <c r="F58" s="7">
+        <v>5962099513</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7">
+        <f t="shared" si="3"/>
+        <v>0.40384540518540457</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="4"/>
+        <v>0.48098729950927155</v>
+      </c>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="7">
+        <v>175366229274</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>167573548142</v>
+      </c>
+      <c r="F59" s="7">
+        <v>166939564215</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95556338774996197</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="4"/>
+        <v>0.95194818812102189</v>
+      </c>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1200911512260</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
+        <v>1148279946760</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1134660970150</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7">
+        <f t="shared" si="3"/>
+        <v>0.95617365229437057</v>
+      </c>
+      <c r="K60" s="7">
+        <f t="shared" si="4"/>
+        <v>0.94483311931507519</v>
+      </c>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="7">
+        <v>21857955733</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
+        <v>6449005199</v>
+      </c>
+      <c r="F61" s="7">
+        <v>3038961077</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7">
+        <f t="shared" si="3"/>
+        <v>0.29504155273146743</v>
+      </c>
+      <c r="K61" s="7">
+        <f t="shared" si="4"/>
+        <v>0.13903226423008697</v>
+      </c>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1198508011030</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1148014852520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="7">
+        <v>230957093</v>
+      </c>
+      <c r="E63" s="7">
+        <v>90435779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="7">
+        <v>6609461788</v>
+      </c>
+      <c r="E64" s="7">
+        <v>6210741557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5022057209</v>
+      </c>
+      <c r="E65" s="7">
+        <v>4941557083</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1197419290450</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1150087208030</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="7">
+        <v>20908152700</v>
+      </c>
+      <c r="E67" s="7">
+        <v>20465930194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="7">
+        <v>6949477344</v>
+      </c>
+      <c r="E68" s="7">
+        <v>6981932375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="7">
+        <v>39</v>
+      </c>
+      <c r="E69" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1196448721430</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1154981247210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="7">
+        <v>23239628494</v>
+      </c>
+      <c r="E71" s="7">
+        <v>23463995485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="7">
+        <v>15636893508</v>
+      </c>
+      <c r="E72" s="7">
+        <v>15504651694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="7">
+        <v>610247790</v>
+      </c>
+      <c r="E73" s="7">
+        <v>236789392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1198581393550</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1146613615540</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="7">
+        <v>323268668</v>
+      </c>
+      <c r="E75" s="7">
+        <v>347767293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="7">
+        <v>223407093856</v>
+      </c>
+      <c r="E76" s="7">
+        <v>223578616684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="7">
+        <v>6573834192</v>
+      </c>
+      <c r="E77" s="7">
+        <v>6499316532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1199147501320</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1152832234660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="7">
+        <v>5501721477</v>
+      </c>
+      <c r="E79" s="7">
+        <v>5520529799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="7">
+        <v>12254167605</v>
+      </c>
+      <c r="E80" s="7">
+        <v>12147764991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="7">
+        <v>46</v>
+      </c>
+      <c r="E81" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1194853609660</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1146862500650</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="7">
+        <v>151275743</v>
+      </c>
+      <c r="E83" s="7">
+        <v>149091752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C9BA91-C15C-49DC-AD72-97D5AFC76AD3}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" customWidth="1"/>
+    <col min="4" max="4" width="36.1328125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="24">
+        <v>8</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="24">
+        <v>6</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B83D2-17B5-4C3C-AEB8-7A16A8B053BB}">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1445</v>
+      </c>
+      <c r="C2" s="23">
+        <v>10700</v>
+      </c>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="23">
+        <v>374</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1506</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="23">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23">
+        <v>576</v>
+      </c>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="23">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
+        <v>394</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="23">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>23</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>42</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>102</v>
+      </c>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>183</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23">
+        <v>439</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <v>25</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>14</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="23">
+        <v>2</v>
+      </c>
+      <c r="C15" s="23">
+        <v>716</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="23">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>40</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="23">
+        <v>5</v>
+      </c>
+      <c r="C17" s="23">
+        <v>565</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="23">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>31</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>10</v>
+      </c>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>19</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H219"/>
   <sheetViews>
@@ -4949,11 +9982,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87951E7B-4827-4323-B134-23BCB9A420CD}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -6299,1966 +11332,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5464C-330A-41DB-8D46-3E35795C96A7}">
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1455430818660</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1455711713820</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <v>161123142408</v>
-      </c>
-      <c r="C8" s="7">
-        <v>161239562241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3467929632</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3504527261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7">
-        <v>16464081572</v>
-      </c>
-      <c r="C10" s="7">
-        <v>16495934063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1454534426350</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1454952282780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="7">
-        <v>29456209073</v>
-      </c>
-      <c r="C12" s="7">
-        <v>29523193245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1515685088490</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1515634109420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1182526327200</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1182851735900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1470419197300</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1455169878820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
-        <v>103919266770</v>
-      </c>
-      <c r="C16" s="7">
-        <v>92969445865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="7">
-        <v>121273712</v>
-      </c>
-      <c r="C17" s="7">
-        <v>112771609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="7">
-        <v>643956514</v>
-      </c>
-      <c r="C18" s="7">
-        <v>608768913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1454534155420</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1455053299570</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2946612596</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2991950768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6140342117</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6157822941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="7">
-        <v>3133462314</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3213159244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>1456017173310</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1454557698520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="7">
-        <v>8338726051</v>
-      </c>
-      <c r="C24" s="7">
-        <v>6274152903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="7">
-        <v>371987727951</v>
-      </c>
-      <c r="C25" s="7">
-        <v>370526514167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="7">
-        <v>12049370420</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9475769111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1455813119720</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1455622715410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="7">
-        <v>160716904306</v>
-      </c>
-      <c r="C31" s="7">
-        <v>161005402262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3467567378</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3510650923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="7">
-        <v>16469719256</v>
-      </c>
-      <c r="C33" s="7">
-        <v>16507600784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1455137786120</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1455321063000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="7">
-        <v>29076616462</v>
-      </c>
-      <c r="C35" s="7">
-        <v>29187316555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="7">
-        <v>1515713632050</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1515634418560</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="7">
-        <v>1183596481060</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1183673248120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="7">
-        <v>1454211784310</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1455749883280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="7">
-        <v>92051194528</v>
-      </c>
-      <c r="C39" s="7">
-        <v>92124076145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="7">
-        <v>110893155</v>
-      </c>
-      <c r="C40" s="7">
-        <v>111924941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="7">
-        <v>606219745</v>
-      </c>
-      <c r="C41" s="7">
-        <v>603740326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1454545767260</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1455105374080</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2933115043</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2981194473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7">
-        <v>6106092050</v>
-      </c>
-      <c r="C44" s="7">
-        <v>6100921738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="7">
-        <v>3074966868</v>
-      </c>
-      <c r="C45" s="7">
-        <v>3138441783</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="7">
-        <v>1454961105490</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1454800064070</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="7">
-        <v>6179245023</v>
-      </c>
-      <c r="C47" s="7">
-        <v>6174988815</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="7">
-        <v>370499782327</v>
-      </c>
-      <c r="C48" s="7">
-        <v>370482756600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="7">
-        <v>9314225753</v>
-      </c>
-      <c r="C49" s="7">
-        <v>9353143664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EE433-CEA8-42D5-AB36-3F5DBB49C7DA}">
-  <dimension ref="A1:L83"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
-        <v>13926170.969799999</v>
-      </c>
-      <c r="C6" s="7">
-        <v>11832878.595100001</v>
-      </c>
-      <c r="D6" s="7">
-        <v>11733741.332599999</v>
-      </c>
-      <c r="E6" s="7">
-        <v>11729644.3036</v>
-      </c>
-      <c r="F6" s="7">
-        <f>C6/B6</f>
-        <v>0.84968643719515802</v>
-      </c>
-      <c r="G6" s="7">
-        <f>D6/B6</f>
-        <v>0.84256766328989807</v>
-      </c>
-      <c r="H6" s="7">
-        <f>E6/B6</f>
-        <v>0.84227346691611493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7">
-        <v>11559870.666999999</v>
-      </c>
-      <c r="C7" s="7">
-        <v>11559865.197899999</v>
-      </c>
-      <c r="D7" s="7">
-        <v>11559871.045499999</v>
-      </c>
-      <c r="E7" s="7">
-        <v>11559872.0341</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" ref="F7:F19" si="0">C7/B7</f>
-        <v>0.99999952688917049</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G7:G19" si="1">D7/B7</f>
-        <v>1.0000000327425809</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" ref="H7:H19" si="2">E7/B7</f>
-        <v>1.0000001182625688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9137239.4423799999</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7208144.8775000004</v>
-      </c>
-      <c r="D8" s="7">
-        <v>7090217.4798699999</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7087990.5456699999</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.7888755595117114</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.7759693203380903</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.77572559965920873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>3450147.4054299998</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2634853.4745</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2582915.6261999998</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2580126.3355700001</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.76369301507325371</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.74863920948272789</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.74783075398728738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7">
-        <v>13923294.2926</v>
-      </c>
-      <c r="C10" s="7">
-        <v>11853238.2629</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11729388.2075</v>
-      </c>
-      <c r="E10" s="7">
-        <v>11731785.1755</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85132426376994697</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.84242909479647887</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.84260125003141306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7">
-        <v>8804560.4897799995</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7927462.3078300003</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7859103.84332</v>
-      </c>
-      <c r="E11" s="7">
-        <v>7861322.7290000003</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.90038137815418484</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.8926173944108341</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.89286940990695973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>833595.29824999999</v>
-      </c>
-      <c r="C12" s="7">
-        <v>764739.91178299999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>715954.25274999999</v>
-      </c>
-      <c r="E12" s="7">
-        <v>722686.18134999997</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.91739950235857748</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.8588751091243334</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.86695088476046356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7">
-        <v>524572.05001699994</v>
-      </c>
-      <c r="C13" s="7">
-        <v>470349.51144999999</v>
-      </c>
-      <c r="D13" s="7">
-        <v>436872.26711700001</v>
-      </c>
-      <c r="E13" s="7">
-        <v>444546.31411699997</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89663471668907491</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.83281651605883722</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.84744567329234077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7">
-        <v>13937173.9926</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11847992.3805</v>
-      </c>
-      <c r="D14" s="7">
-        <v>11730769.681</v>
-      </c>
-      <c r="E14" s="7">
-        <v>11730258.700300001</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85010005520421439</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.8416892611966027</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.8416525980466506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7">
-        <v>226520.621117</v>
-      </c>
-      <c r="C15" s="7">
-        <v>186701.04661700001</v>
-      </c>
-      <c r="D15" s="7">
-        <v>182743.72589999999</v>
-      </c>
-      <c r="E15" s="7">
-        <v>182417.43206699999</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.82421214323161862</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.80674211910098537</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.80530165936980935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7">
-        <v>139877.28649999999</v>
-      </c>
-      <c r="C16" s="7">
-        <v>86651.643800000005</v>
-      </c>
-      <c r="D16" s="7">
-        <v>44519.368399999999</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45330.580099999999</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>0.61948330546146257</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.31827446409607041</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.32407391674701957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7">
-        <v>664480.04571700003</v>
-      </c>
-      <c r="C17" s="7">
-        <v>558786.60061700002</v>
-      </c>
-      <c r="D17" s="7">
-        <v>601897.813433</v>
-      </c>
-      <c r="E17" s="7">
-        <v>606174.10574999999</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84093812029230663</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.90581774022051886</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.91225328684763496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7">
-        <v>13926196.0865</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11831501.8684</v>
-      </c>
-      <c r="D18" s="7">
-        <v>11732344.2894</v>
-      </c>
-      <c r="E18" s="7">
-        <v>11734372.6723</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84958604596049103</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>0.84246582602504705</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.84261147835447003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7">
-        <v>263937.67583299999</v>
-      </c>
-      <c r="C19" s="7">
-        <v>131657.492417</v>
-      </c>
-      <c r="D19" s="7">
-        <v>24091.241966699999</v>
-      </c>
-      <c r="E19" s="7">
-        <v>25544.518499999998</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0.49882038250690292</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>9.1276252587535606E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="2"/>
-        <v>9.6782387809471571E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7">
-        <v>13931886.5241</v>
-      </c>
-      <c r="D20" s="7">
-        <v>11733923.749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4167.7998166699999</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1802.0540833299999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="7">
-        <v>14211.4880667</v>
-      </c>
-      <c r="D22" s="7">
-        <v>12363.90155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="7">
-        <v>17553.445333299998</v>
-      </c>
-      <c r="D23" s="7">
-        <v>16491.461016699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7">
-        <v>13932860.719000001</v>
-      </c>
-      <c r="D24" s="7">
-        <v>11728766.3716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7">
-        <v>72717.839399999997</v>
-      </c>
-      <c r="D25" s="7">
-        <v>70123.218366700006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="7">
-        <v>51550.433550000002</v>
-      </c>
-      <c r="D26" s="7">
-        <v>51005.226583299998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="7">
-        <v>59.996400000000001</v>
-      </c>
-      <c r="D27" s="7">
-        <v>59.994966666700002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="7">
-        <v>13927552.449200001</v>
-      </c>
-      <c r="D28" s="7">
-        <v>11728036.101199999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="7">
-        <v>38867.794000000002</v>
-      </c>
-      <c r="D29" s="7">
-        <v>40529.209016699999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="7">
-        <v>25834.053483299998</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28005.945266700001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="7">
-        <v>6754.9944833299996</v>
-      </c>
-      <c r="D31" s="7">
-        <v>673.98426666700004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="7">
-        <v>13918747.7819</v>
-      </c>
-      <c r="D32" s="7">
-        <v>11722610.2643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="7">
-        <v>54925.114766699997</v>
-      </c>
-      <c r="D33" s="7">
-        <v>54697.084866700003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2743634.0181</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2746846.1967000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="7">
-        <v>26040.492249999999</v>
-      </c>
-      <c r="D35" s="7">
-        <v>24868.138033300002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="7">
-        <v>13936422.3388</v>
-      </c>
-      <c r="D36" s="7">
-        <v>11717481.908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9308.1689833300006</v>
-      </c>
-      <c r="D37" s="7">
-        <v>9144.8289499999992</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="7">
-        <v>35865.612683300002</v>
-      </c>
-      <c r="D38" s="7">
-        <v>34270.702583300001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="7">
-        <v>59.994599999999998</v>
-      </c>
-      <c r="D39" s="7">
-        <v>59.994416666699998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="7">
-        <v>13921287.099400001</v>
-      </c>
-      <c r="D40" s="7">
-        <v>11721041.625499999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="7">
-        <v>721.71546666699999</v>
-      </c>
-      <c r="D41" s="7">
-        <v>574.88836666700001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="114" x14ac:dyDescent="0.45">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="7">
-        <v>1197162217240</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7">
-        <v>1148747932240</v>
-      </c>
-      <c r="F48" s="7">
-        <v>1135099261780</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7">
-        <f>E48/B48</f>
-        <v>0.95955912715687197</v>
-      </c>
-      <c r="K48" s="7">
-        <f>F48/B48</f>
-        <v>0.94815827415345333</v>
-      </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="7">
-        <v>955418535043</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7">
-        <v>955437943748</v>
-      </c>
-      <c r="F49" s="7">
-        <v>955693334574</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7">
-        <f t="shared" ref="J49:J61" si="3">E49/B49</f>
-        <v>1.0000203143484119</v>
-      </c>
-      <c r="K49" s="7">
-        <f t="shared" ref="K49:K61" si="4">F49/B49</f>
-        <v>1.0002876221476984</v>
-      </c>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="7">
-        <v>822769218808</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
-        <v>773952254181</v>
-      </c>
-      <c r="F50" s="7">
-        <v>756784074646</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7">
-        <f t="shared" si="3"/>
-        <v>0.94066748790417276</v>
-      </c>
-      <c r="K50" s="7">
-        <f t="shared" si="4"/>
-        <v>0.91980115121759531</v>
-      </c>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="7">
-        <v>233929979354</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7">
-        <v>190437469512</v>
-      </c>
-      <c r="F51" s="7">
-        <v>190247206607</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7">
-        <f t="shared" si="3"/>
-        <v>0.81407893950957033</v>
-      </c>
-      <c r="K51" s="7">
-        <f t="shared" si="4"/>
-        <v>0.81326560679554449</v>
-      </c>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="7">
-        <v>1199157919940</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7">
-        <v>1148056369510</v>
-      </c>
-      <c r="F52" s="7">
-        <v>1135525307280</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7">
-        <f t="shared" si="3"/>
-        <v>0.95738547060377432</v>
-      </c>
-      <c r="K52" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94693558571236069</v>
-      </c>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A53" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="7">
-        <v>855080003365</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7">
-        <v>848152796767</v>
-      </c>
-      <c r="F53" s="7">
-        <v>836465312711</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99189876202140226</v>
-      </c>
-      <c r="K53" s="7">
-        <f t="shared" si="4"/>
-        <v>0.97823046898448618</v>
-      </c>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="7">
-        <v>252947398415</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7">
-        <v>240077009277</v>
-      </c>
-      <c r="F54" s="7">
-        <v>245009860529</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7">
-        <f t="shared" si="3"/>
-        <v>0.9491183178058068</v>
-      </c>
-      <c r="K54" s="7">
-        <f t="shared" si="4"/>
-        <v>0.96861980816668758</v>
-      </c>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A55" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="7">
-        <v>175601730276</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7">
-        <v>165522926942</v>
-      </c>
-      <c r="F55" s="7">
-        <v>168150761769</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7">
-        <f t="shared" si="3"/>
-        <v>0.94260419121065175</v>
-      </c>
-      <c r="K55" s="7">
-        <f t="shared" si="4"/>
-        <v>0.95756893456978454</v>
-      </c>
-      <c r="L55" s="7"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1200056023480</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
-        <v>1150060896440</v>
-      </c>
-      <c r="F56" s="7">
-        <v>1135588877340</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7">
-        <f t="shared" si="3"/>
-        <v>0.95833933911266833</v>
-      </c>
-      <c r="K56" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94627988620643388</v>
-      </c>
-      <c r="L56" s="7"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" s="7">
-        <v>32060808262</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7">
-        <v>31945301789</v>
-      </c>
-      <c r="F57" s="7">
-        <v>31891727823</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7">
-        <f t="shared" si="3"/>
-        <v>0.99639726883813773</v>
-      </c>
-      <c r="K57" s="7">
-        <f t="shared" si="4"/>
-        <v>0.99472625775313339</v>
-      </c>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A58" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="7">
-        <v>12395544579</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7">
-        <v>5005883723</v>
-      </c>
-      <c r="F58" s="7">
-        <v>5962099513</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7">
-        <f t="shared" si="3"/>
-        <v>0.40384540518540457</v>
-      </c>
-      <c r="K58" s="7">
-        <f t="shared" si="4"/>
-        <v>0.48098729950927155</v>
-      </c>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="7">
-        <v>175366229274</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7">
-        <v>167573548142</v>
-      </c>
-      <c r="F59" s="7">
-        <v>166939564215</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7">
-        <f t="shared" si="3"/>
-        <v>0.95556338774996197</v>
-      </c>
-      <c r="K59" s="7">
-        <f t="shared" si="4"/>
-        <v>0.95194818812102189</v>
-      </c>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="7">
-        <v>1200911512260</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7">
-        <v>1148279946760</v>
-      </c>
-      <c r="F60" s="7">
-        <v>1134660970150</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7">
-        <f t="shared" si="3"/>
-        <v>0.95617365229437057</v>
-      </c>
-      <c r="K60" s="7">
-        <f t="shared" si="4"/>
-        <v>0.94483311931507519</v>
-      </c>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="7">
-        <v>21857955733</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7">
-        <v>6449005199</v>
-      </c>
-      <c r="F61" s="7">
-        <v>3038961077</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7">
-        <f t="shared" si="3"/>
-        <v>0.29504155273146743</v>
-      </c>
-      <c r="K61" s="7">
-        <f t="shared" si="4"/>
-        <v>0.13903226423008697</v>
-      </c>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="7">
-        <v>1198508011030</v>
-      </c>
-      <c r="E62" s="7">
-        <v>1148014852520</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A63" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" s="7">
-        <v>230957093</v>
-      </c>
-      <c r="E63" s="7">
-        <v>90435779</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="7">
-        <v>6609461788</v>
-      </c>
-      <c r="E64" s="7">
-        <v>6210741557</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="7">
-        <v>5022057209</v>
-      </c>
-      <c r="E65" s="7">
-        <v>4941557083</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="7">
-        <v>1197419290450</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1150087208030</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="7">
-        <v>20908152700</v>
-      </c>
-      <c r="E67" s="7">
-        <v>20465930194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="7">
-        <v>6949477344</v>
-      </c>
-      <c r="E68" s="7">
-        <v>6981932375</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B69" s="7">
-        <v>39</v>
-      </c>
-      <c r="E69" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="7">
-        <v>1196448721430</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1154981247210</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A71" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="7">
-        <v>23239628494</v>
-      </c>
-      <c r="E71" s="7">
-        <v>23463995485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="7">
-        <v>15636893508</v>
-      </c>
-      <c r="E72" s="7">
-        <v>15504651694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B73" s="7">
-        <v>610247790</v>
-      </c>
-      <c r="E73" s="7">
-        <v>236789392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="7">
-        <v>1198581393550</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1146613615540</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="7">
-        <v>323268668</v>
-      </c>
-      <c r="E75" s="7">
-        <v>347767293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A76" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="7">
-        <v>223407093856</v>
-      </c>
-      <c r="E76" s="7">
-        <v>223578616684</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A77" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B77" s="7">
-        <v>6573834192</v>
-      </c>
-      <c r="E77" s="7">
-        <v>6499316532</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="7">
-        <v>1199147501320</v>
-      </c>
-      <c r="E78" s="7">
-        <v>1152832234660</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A79" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="7">
-        <v>5501721477</v>
-      </c>
-      <c r="E79" s="7">
-        <v>5520529799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="7">
-        <v>12254167605</v>
-      </c>
-      <c r="E80" s="7">
-        <v>12147764991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="7">
-        <v>46</v>
-      </c>
-      <c r="E81" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="7">
-        <v>1194853609660</v>
-      </c>
-      <c r="E82" s="7">
-        <v>1146862500650</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>51</v>
-      </c>
-      <c r="B83" s="7">
-        <v>151275743</v>
-      </c>
-      <c r="E83" s="7">
-        <v>149091752</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="439" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{589D4181-61AB-49AF-9775-D64BF2BE1A04}"/>
+  <xr:revisionPtr revIDLastSave="514" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{518CB9FD-BFAC-43EA-B6A4-A0E6B74A8CFA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="125">
   <si>
     <t>empty main function</t>
   </si>
@@ -354,10 +354,52 @@
     <t>total # of 4KB pages</t>
   </si>
   <si>
-    <t># of contiguous 4KB pages accessed</t>
-  </si>
-  <si>
-    <t>frequency</t>
+    <t>proc -v RES</t>
+  </si>
+  <si>
+    <t>clang</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>SPECjvm</t>
+  </si>
+  <si>
+    <t>derby</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/libjava.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/libverify.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/libzip.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/bin/java</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/libnet.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/libnio.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/jre/lib/amd64/server/libjvm.so</t>
+  </si>
+  <si>
+    <t>/usr/local/openjdk8/lib/amd64/jli/libjli.so</t>
+  </si>
+  <si>
+    <t>compiler.compiler</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>xml.transform</t>
   </si>
 </sst>
 </file>
@@ -367,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +450,14 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,6 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -550,2183 +603,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>postgres binary </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>access pattern</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'app code access pattern'!$A$24:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'app code access pattern'!$B$24:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84EF-4B7D-B5C3-27D07296D482}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="656348896"/>
-        <c:axId val="656349880"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="656348896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656349880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="656349880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of contiguous 4KB pages accessed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656348896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>clang binary access</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> pattern</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'app code access pattern'!$A$43:$A$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'app code access pattern'!$B$43:$B$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CC8-4998-B37B-D5D5C8285433}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="656353816"/>
-        <c:axId val="656351848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="656353816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656351848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="656351848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of contiguous 4KB pages accessed</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="656353816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1235868</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>278606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>602456</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>126206</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AE85D1-D885-4AF5-9281-F333237BDC2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1140618</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150018</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9913D73C-51F4-4E99-857A-C193428D5FCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4957,7 +2833,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5103,545 +2979,1064 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B83D2-17B5-4C3C-AEB8-7A16A8B053BB}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.53125" customWidth="1"/>
+    <col min="1" max="1" width="45.53125" customWidth="1"/>
     <col min="2" max="2" width="20.86328125" customWidth="1"/>
     <col min="3" max="3" width="18.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="D2" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="23">
-        <v>1445</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B3" s="28">
+        <v>1872</v>
+      </c>
+      <c r="C3" s="28">
         <v>10700</v>
       </c>
-      <c r="D2" s="28"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
       <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="23">
-        <v>374</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B8">
+        <v>524</v>
+      </c>
+      <c r="C8">
         <v>1506</v>
       </c>
-      <c r="D4" s="28"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="D8" s="28">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C9">
         <v>576</v>
       </c>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C10">
         <v>394</v>
       </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C12">
         <v>23</v>
       </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C13">
         <v>42</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>102</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C15">
+        <v>183</v>
+      </c>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>439</v>
+      </c>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>183</v>
-      </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>439</v>
-      </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="23">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>25</v>
-      </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="23">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>14</v>
-      </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="23">
-        <v>2</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>716</v>
       </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="23">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
         <v>40</v>
       </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C21">
         <v>565</v>
       </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>31</v>
-      </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>10</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>31</v>
+      </c>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="J27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
+      <c r="C29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>229</v>
+      </c>
+      <c r="C32">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>15</v>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>98</v>
       </c>
       <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>19</v>
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>117</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="C39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <v>2036</v>
+      </c>
+      <c r="C41">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="23"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49">
         <v>41</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>4</v>
-      </c>
-      <c r="B46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>6</v>
-      </c>
-      <c r="B48">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>229</v>
+      </c>
+      <c r="C53">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55">
         <v>7</v>
       </c>
-      <c r="B49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50">
+      <c r="C55">
         <v>8</v>
       </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>9</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>10</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>11</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>12</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>13</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>14</v>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>98</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="C56">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>117</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>16</v>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>101</v>
       </c>
       <c r="B58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>100</v>
       </c>
       <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62">
+        <v>2056</v>
+      </c>
+      <c r="C62">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74">
+        <v>228</v>
+      </c>
+      <c r="C74">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81">
         <v>20</v>
       </c>
-      <c r="B60">
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83">
+        <v>2032</v>
+      </c>
+      <c r="C83">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85">
+        <v>31</v>
+      </c>
+      <c r="C85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91">
+        <v>31</v>
+      </c>
+      <c r="C91">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
+        <v>229</v>
+      </c>
+      <c r="C95">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>78</v>
+      </c>
+      <c r="C98">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>23</v>
-      </c>
-      <c r="B61">
+      <c r="C99">
         <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102">
+        <v>20</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103">
+        <v>15</v>
+      </c>
+      <c r="C103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104">
+        <v>2034</v>
+      </c>
+      <c r="C104">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/shared_ptp_new.xlsx
+++ b/shared_ptp_new.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="514" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{518CB9FD-BFAC-43EA-B6A4-A0E6B74A8CFA}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="8_{7156C829-7D86-4EAD-B166-CA96C90DE1E5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{80D7092A-5476-414C-887E-8F7855731833}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apache-usr" sheetId="4" r:id="rId1"/>
@@ -15,10 +15,15 @@
     <sheet name="clang-usr" sheetId="1" r:id="rId5"/>
     <sheet name="postgres_usr" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -357,9 +362,6 @@
     <t>proc -v RES</t>
   </si>
   <si>
-    <t>clang</t>
-  </si>
-  <si>
     <t>postgres</t>
   </si>
   <si>
@@ -400,6 +402,9 @@
   </si>
   <si>
     <t>xml.transform</t>
+  </si>
+  <si>
+    <t>clang -c emtpy.c</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EE433-CEA8-42D5-AB36-3F5DBB49C7DA}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2981,9 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B83D2-17B5-4C3C-AEB8-7A16A8B053BB}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2994,7 +2997,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3037,7 +3040,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
@@ -3253,12 +3256,12 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -3278,7 +3281,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>31</v>
@@ -3333,7 +3336,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>14</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -3410,7 +3413,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B40">
         <v>15</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>2036</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -3460,7 +3463,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -3476,7 +3479,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>33</v>
@@ -3531,7 +3534,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>14</v>
@@ -3542,7 +3545,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -3564,7 +3567,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60">
         <v>13</v>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -3619,7 +3622,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62">
         <v>2056</v>
@@ -3630,7 +3633,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B63">
         <v>12</v>
@@ -3652,7 +3655,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -3668,7 +3671,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70">
         <v>31</v>
@@ -3723,7 +3726,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>14</v>
@@ -3734,7 +3737,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>20</v>
@@ -3800,7 +3803,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>15</v>
@@ -3811,7 +3814,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83">
         <v>2032</v>
@@ -3822,7 +3825,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>12</v>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -3860,7 +3863,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>31</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96">
         <v>14</v>
@@ -3926,7 +3929,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97">
         <v>7</v>
@@ -3948,7 +3951,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B102">
         <v>20</v>
@@ -3992,7 +3995,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103">
         <v>15</v>
@@ -4003,7 +4006,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104">
         <v>2034</v>
@@ -4014,7 +4017,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B105">
         <v>12</v>
@@ -4044,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
